--- a/data/case1/15/V2_13.xlsx
+++ b/data/case1/15/V2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.9999999976193823</v>
+        <v>0.99999999817537866</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99785024201586414</v>
+        <v>0.99835703773066364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99223986303837397</v>
+        <v>0.99312433938167111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99395903007014752</v>
+        <v>0.99538545395598477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98248068986196435</v>
+        <v>0.98446652423590386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95610849220752048</v>
+        <v>0.96019022919848662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95056133874985971</v>
+        <v>0.95437912392683732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94274057869451211</v>
+        <v>0.945375502941462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9333678977613743</v>
+        <v>0.9343487815133481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92253764469224186</v>
+        <v>0.92423224848715513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92094127178496965</v>
+        <v>0.92263588361826687</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.91816110626571312</v>
+        <v>0.9198557521521471</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.90687284906391641</v>
+        <v>0.90856761187951363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.90270515450307576</v>
+        <v>0.90439993205005709</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90011347398296659</v>
+        <v>0.90180825626434558</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.89760685315335986</v>
+        <v>0.89930164093596832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.89389876556932013</v>
+        <v>0.89559355467595658</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.89278982397402795</v>
+        <v>0.89448461029216975</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99679697925419664</v>
+        <v>0.99730376921226416</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98967979112714843</v>
+        <v>0.99018656759115165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98828127184457615</v>
+        <v>0.98878804487214622</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98701676140967953</v>
+        <v>0.98752353483799671</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98520552571800879</v>
+        <v>0.98609005334479982</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9721851311470272</v>
+        <v>0.97306971363661998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96572820492138811</v>
+        <v>0.96661279528473565</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95349166321238688</v>
+        <v>0.95820205602409825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95009185896702086</v>
+        <v>0.95568025116968391</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93685084276337505</v>
+        <v>0.94728316853121453</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.92766854312126867</v>
+        <v>0.94172371925148757</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9234899214496175</v>
+        <v>0.93712790423649517</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92400367614237366</v>
+        <v>0.93755417376569683</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.92232433394108704</v>
+        <v>0.93587483313782505</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.92180430982139172</v>
+        <v>0.9353548050518814</v>
       </c>
     </row>
   </sheetData>
